--- a/src/test/resources/excelcase/kubera-template.xlsx
+++ b/src/test/resources/excelcase/kubera-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera\kubera\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera-skeleton\src\test\resources\excelcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119AC8-782E-46A0-9A87-B088960C789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C739700-42D4-4049-BF44-5792212D445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="820" windowWidth="36560" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="2340" windowWidth="25600" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>テストケース開始セル位置</t>
     <rPh sb="6" eb="8">
@@ -136,9 +136,6 @@
     <t>switchTo</t>
   </si>
   <si>
-    <t>捜査対象のウィンドウ/タブを[宿泊プラン一覧 | HOTEL PLANISPHERE - テスト自動化練習サイト]に切り替える</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -468,6 +465,14 @@
     <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捜査対象のウィンドウ/タブを[宿泊予約 | HOTEL PLANISPHERE - テスト自動化練習サイト]に切り替える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約 | HOTEL PLANISPHERE - テスト自動化練習サイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,14 +587,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -607,6 +606,12 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,7 +902,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -919,390 +924,390 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>61</v>
+      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="13" customFormat="1" ht="14.5">
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="14" customFormat="1">
-      <c r="B7" s="14" t="s">
+    <row r="6" spans="2:11" s="11" customFormat="1" ht="14.5">
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="12" customFormat="1">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="14" customFormat="1" ht="54">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:11" s="12" customFormat="1" ht="54">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="13" customFormat="1" ht="14.5">
-      <c r="C9" s="13" t="s">
-        <v>28</v>
+    <row r="9" spans="2:11" s="11" customFormat="1" ht="14.5">
+      <c r="C9" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="14" customFormat="1">
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="11" spans="2:11" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="H11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="12" customFormat="1">
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="14" customFormat="1">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="4" customFormat="1">
       <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:11" s="4" customFormat="1">
       <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="4" customFormat="1">
       <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="15" customFormat="1" ht="14.5">
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="13"/>
+    </row>
+    <row r="17" spans="2:11" s="13" customFormat="1" ht="14.5">
+      <c r="C17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
